--- a/Team-Data/2011-12/1-28-2011-12.xlsx
+++ b/Team-Data/2011-12/1-28-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
@@ -768,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="AL2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM2" t="n">
         <v>18</v>
@@ -780,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
         <v>5</v>
@@ -801,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>1.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -992,16 +1059,16 @@
         <v>27</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -1030,88 +1097,88 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>0.143</v>
+        <v>0.15</v>
       </c>
       <c r="H4" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.426</v>
+        <v>0.424</v>
       </c>
       <c r="L4" t="n">
         <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.305</v>
+        <v>0.303</v>
       </c>
       <c r="O4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P4" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.731</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
         <v>40.7</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
         <v>6.1</v>
       </c>
       <c r="X4" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.90000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-11.7</v>
+        <v>-12.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>30</v>
@@ -1120,16 +1187,16 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
         <v>19</v>
       </c>
-      <c r="AI4" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ4" t="n">
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
@@ -1141,40 +1208,40 @@
         <v>25</v>
       </c>
       <c r="AO4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP4" t="n">
         <v>26</v>
       </c>
-      <c r="AP4" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
       </c>
       <c r="AW4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX4" t="n">
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
         <v>19</v>
@@ -1183,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="BC4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>7</v>
@@ -1329,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1344,16 +1411,16 @@
         <v>3</v>
       </c>
       <c r="AV5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW5" t="n">
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1362,7 +1429,7 @@
         <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1490,7 +1557,7 @@
         <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1523,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
         <v>30</v>
@@ -1532,7 +1599,7 @@
         <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
         <v>30</v>
@@ -1541,10 +1608,10 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1663,13 +1730,13 @@
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>20</v>
@@ -1678,13 +1745,13 @@
         <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
@@ -1693,13 +1760,13 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR7" t="n">
         <v>20</v>
       </c>
-      <c r="AR7" t="n">
-        <v>21</v>
-      </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>3</v>
@@ -1863,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="J9" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.421</v>
+        <v>0.424</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M9" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.361</v>
+        <v>0.365</v>
       </c>
       <c r="O9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="P9" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R9" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S9" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="T9" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="U9" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="V9" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
         <v>3.8</v>
@@ -2006,31 +2073,31 @@
         <v>5.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="AA9" t="n">
         <v>18.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-10</v>
+        <v>-9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>27</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>30</v>
@@ -2039,7 +2106,7 @@
         <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>24</v>
@@ -2054,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="AP9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>8</v>
@@ -2075,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2087,13 +2154,13 @@
         <v>7</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>30</v>
       </c>
       <c r="BC9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>11</v>
@@ -2218,13 +2285,13 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
       </c>
       <c r="AL10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM10" t="n">
         <v>12</v>
@@ -2242,7 +2309,7 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS10" t="n">
         <v>23</v>
@@ -2254,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.579</v>
       </c>
       <c r="H11" t="n">
         <v>48.8</v>
@@ -2322,79 +2389,79 @@
         <v>38.4</v>
       </c>
       <c r="J11" t="n">
-        <v>85.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M11" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="N11" t="n">
         <v>0.325</v>
       </c>
       <c r="O11" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="P11" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="R11" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>31.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
         <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z11" t="n">
         <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2406,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
@@ -2415,7 +2482,7 @@
         <v>19</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
         <v>30</v>
@@ -2424,16 +2491,16 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2445,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
         <v>16</v>
@@ -2457,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>1.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2582,10 +2649,10 @@
         <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
@@ -2606,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
         <v>6</v>
@@ -2615,13 +2682,13 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV12" t="n">
         <v>17</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>7</v>
@@ -2633,13 +2700,13 @@
         <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>5</v>
@@ -2767,13 +2834,13 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>6</v>
       </c>
       <c r="AM13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN13" t="n">
         <v>14</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS13" t="n">
         <v>26</v>
@@ -2803,7 +2870,7 @@
         <v>7</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -2850,97 +2917,97 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.55</v>
+        <v>0.579</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J14" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.45</v>
       </c>
       <c r="L14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M14" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
       <c r="O14" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P14" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
         <v>44.4</v>
       </c>
       <c r="U14" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V14" t="n">
         <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>92.40000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
@@ -2967,10 +3034,10 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
@@ -2982,28 +3049,28 @@
         <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -3032,34 +3099,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.526</v>
+        <v>0.556</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>82.2</v>
+        <v>82.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.313</v>
@@ -3068,55 +3135,55 @@
         <v>16.5</v>
       </c>
       <c r="P15" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.737</v>
+        <v>0.732</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T15" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="X15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA15" t="n">
         <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
         <v>16</v>
@@ -3128,10 +3195,10 @@
         <v>7</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3140,52 +3207,52 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3316,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
         <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3334,10 +3401,10 @@
         <v>11</v>
       </c>
       <c r="AR16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3355,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.421</v>
+        <v>0.389</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.431</v>
+        <v>0.427</v>
       </c>
       <c r="L17" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.312</v>
+        <v>0.315</v>
       </c>
       <c r="O17" t="n">
         <v>14.8</v>
       </c>
       <c r="P17" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.788</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="S17" t="n">
         <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
@@ -3462,19 +3529,19 @@
         <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.4</v>
+        <v>-2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3489,22 +3556,22 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>7</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3513,10 +3580,10 @@
         <v>28</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
@@ -3528,10 +3595,10 @@
         <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>23</v>
@@ -3540,16 +3607,16 @@
         <v>18</v>
       </c>
       <c r="AZ17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3677,7 +3744,7 @@
         <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>7</v>
@@ -3689,7 +3756,7 @@
         <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP18" t="n">
         <v>5</v>
@@ -3698,10 +3765,10 @@
         <v>13</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT18" t="n">
         <v>7</v>
@@ -3713,7 +3780,7 @@
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3731,7 +3798,7 @@
         <v>13</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-6.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3871,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>20</v>
@@ -3880,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,19 +3956,19 @@
         <v>28</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
         <v>17</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ19" t="n">
         <v>14</v>
@@ -3910,7 +3977,7 @@
         <v>14</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4035,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
         <v>24</v>
@@ -4044,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4059,10 +4126,10 @@
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
@@ -4074,7 +4141,7 @@
         <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>0.35</v>
+        <v>0.368</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J21" t="n">
-        <v>80.7</v>
+        <v>80.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.414</v>
+        <v>0.415</v>
       </c>
       <c r="L21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.307</v>
+        <v>0.313</v>
       </c>
       <c r="O21" t="n">
-        <v>19.7</v>
+        <v>20.2</v>
       </c>
       <c r="P21" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U21" t="n">
         <v>18.6</v>
       </c>
       <c r="V21" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="W21" t="n">
         <v>9.5</v>
@@ -4190,28 +4257,28 @@
         <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.7</v>
+        <v>94.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>6</v>
@@ -4220,40 +4287,40 @@
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU21" t="n">
         <v>24</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="AX21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY21" t="n">
         <v>16</v>
@@ -4274,10 +4341,10 @@
         <v>5</v>
       </c>
       <c r="BB21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM22" t="n">
         <v>16</v>
@@ -4426,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4435,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4453,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>7</v>
@@ -4596,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4620,7 +4687,7 @@
         <v>18</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
@@ -4641,7 +4708,7 @@
         <v>19</v>
       </c>
       <c r="BC23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
@@ -4688,76 +4755,76 @@
         <v>38.9</v>
       </c>
       <c r="J24" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L24" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.389</v>
+        <v>0.379</v>
       </c>
       <c r="O24" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="P24" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.732</v>
+        <v>0.735</v>
       </c>
       <c r="R24" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="T24" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="W24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
         <v>17.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>6</v>
@@ -4766,31 +4833,31 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>4</v>
       </c>
       <c r="AL24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
         <v>19</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR24" t="n">
         <v>28</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>29</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
@@ -4808,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -4852,94 +4919,94 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.368</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="J25" t="n">
-        <v>80.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.439</v>
+        <v>0.444</v>
       </c>
       <c r="L25" t="n">
         <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O25" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="P25" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.768</v>
+        <v>0.773</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z25" t="n">
         <v>19.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.8</v>
+        <v>-4.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -4948,7 +5015,7 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4960,43 +5027,43 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
         <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW25" t="n">
         <v>23</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5121,16 +5188,16 @@
         <v>11</v>
       </c>
       <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI26" t="n">
         <v>11</v>
       </c>
-      <c r="AH26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5142,7 +5209,7 @@
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
         <v>8</v>
@@ -5151,13 +5218,13 @@
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>9</v>
       </c>
       <c r="AS26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>5</v>
@@ -5172,7 +5239,7 @@
         <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>12</v>
@@ -5181,7 +5248,7 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -5216,55 +5283,55 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="J27" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.399</v>
+        <v>0.396</v>
       </c>
       <c r="L27" t="n">
         <v>5.7</v>
       </c>
       <c r="M27" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.281</v>
+        <v>0.276</v>
       </c>
       <c r="O27" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="P27" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.731</v>
+        <v>0.726</v>
       </c>
       <c r="R27" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U27" t="n">
         <v>15.7</v>
@@ -5273,34 +5340,34 @@
         <v>15.6</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-11.7</v>
+        <v>-12.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="n">
         <v>24</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5312,7 +5379,7 @@
         <v>28</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -5321,7 +5388,7 @@
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN27" t="n">
         <v>28</v>
@@ -5330,10 +5397,10 @@
         <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,34 +5409,34 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>7</v>
@@ -5485,16 +5552,16 @@
         <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5509,13 +5576,13 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="n">
         <v>27</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
         <v>27</v>
@@ -5524,7 +5591,7 @@
         <v>18</v>
       </c>
       <c r="AT28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5533,10 +5600,10 @@
         <v>4</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>-6.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>29</v>
@@ -5679,7 +5746,7 @@
         <v>26</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
@@ -5694,13 +5761,13 @@
         <v>21</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>12</v>
@@ -5718,10 +5785,10 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -5762,94 +5829,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
         <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>0.611</v>
+        <v>0.588</v>
       </c>
       <c r="H30" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I30" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.296</v>
+        <v>0.288</v>
       </c>
       <c r="O30" t="n">
         <v>19.4</v>
       </c>
       <c r="P30" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.743</v>
+        <v>0.738</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S30" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="T30" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U30" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="V30" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="W30" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y30" t="n">
         <v>5.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="AA30" t="n">
         <v>21.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>3</v>
@@ -5864,10 +5931,10 @@
         <v>8</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
         <v>26</v>
@@ -5879,31 +5946,31 @@
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
         <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
         <v>16</v>
       </c>
       <c r="AV30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
@@ -5944,112 +6011,112 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.158</v>
       </c>
       <c r="H31" t="n">
         <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8</v>
+        <v>83.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.42</v>
+        <v>0.415</v>
       </c>
       <c r="L31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M31" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.293</v>
+        <v>0.282</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
         <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S31" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>42.1</v>
       </c>
       <c r="U31" t="n">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="V31" t="n">
         <v>15.8</v>
       </c>
       <c r="W31" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>88.90000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-9.4</v>
+        <v>-10.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN31" t="n">
         <v>27</v>
@@ -6064,40 +6131,40 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-28-2011-12</t>
+          <t>2012-01-28</t>
         </is>
       </c>
     </row>
